--- a/dallasTax.xlsx
+++ b/dallasTax.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Owner's name and address</t>
   </si>
@@ -45,6 +45,84 @@
   <si>
     <t>    
 				  $31,191.80  
+			</t>
+  </si>
+  <si>
+    <t>    KNOWLES CLARENCE PO BOX 763909 DALLAS, TX  75376-3909   
+                   </t>
+  </si>
+  <si>
+    <t>    2609 ARIZONA AVE, DA    
+                   </t>
+  </si>
+  <si>
+    <t>    
+				  $21,406.82  
+			</t>
+  </si>
+  <si>
+    <t>    COTTON CREEK JV PO BOX 796936 DALLAS, TX  75379-6936   
+                   </t>
+  </si>
+  <si>
+    <t>    8600 MIDPARK RD, DA    
+                   </t>
+  </si>
+  <si>
+    <t>    
+				  $334,768.80  
+			</t>
+  </si>
+  <si>
+    <t>    WILDFLOWER DEV CO % FSLIC EMPIRE 8350 N CTL EXPWY STE 1178 DALLAS, TX  75206-0000   
+                   </t>
+  </si>
+  <si>
+    <t>    5700 MARVIN LOVING DR, CG    
+                   </t>
+  </si>
+  <si>
+    <t>    
+				  $71,534.03  
+			</t>
+  </si>
+  <si>
+    <t>    GREGORY GEORGE 820 CLEAR FORK DR DALLAS, TX  75232-2004   
+                   </t>
+  </si>
+  <si>
+    <t>    2401 JEFFRIES ST, DA    
+                   </t>
+  </si>
+  <si>
+    <t>    
+				  $18,814.00  
+			</t>
+  </si>
+  <si>
+    <t>    STEPHENS SAM A 8332 HONEYSUCKLE LN DALLAS, TX  75241-6825   
+                   </t>
+  </si>
+  <si>
+    <t>    8332 HONEYSUCKLE LN, DA    
+                   </t>
+  </si>
+  <si>
+    <t>    
+				  $70,936.86  
+			</t>
+  </si>
+  <si>
+    <t>    WESTERN FINANCIAL GROUP INC 2424 VISTA WAY FL 3 OCEANSIDE, CA  92054-6169   
+                   </t>
+  </si>
+  <si>
+    <t>    6248 ORAM ST 9, DA    
+                   </t>
+  </si>
+  <si>
+    <t>    
+				  $138,665.44  
 			</t>
   </si>
 </sst>
@@ -85,7 +163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -212,6 +290,204 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
